--- a/엑셀/Frame.xlsx
+++ b/엑셀/Frame.xlsx
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>은하수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하루</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,6 +120,10 @@
   </si>
   <si>
     <t>AbilityCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -171,9 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -447,12 +452,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
@@ -460,16 +465,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,10 +484,10 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
     </row>
@@ -493,10 +498,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
     </row>
@@ -507,10 +512,10 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
     </row>
@@ -521,10 +526,10 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>10</v>
       </c>
     </row>
@@ -535,10 +540,10 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
     </row>
@@ -549,10 +554,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -561,12 +566,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>10</v>
       </c>
     </row>
@@ -575,12 +580,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
     </row>
@@ -589,12 +594,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
     </row>
@@ -603,12 +608,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>10</v>
       </c>
     </row>
